--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R2eba0286c16a4bf2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rd6b2d69406974111"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rd6b2d69406974111"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R38064a33e13e47ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R38064a33e13e47ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R8af362c96263422d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R8af362c96263422d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Ra885f707c2874539"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Ra885f707c2874539"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4e2d2d04d7d54fb2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R4e2d2d04d7d54fb2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rc5b117af96a0448b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rc5b117af96a0448b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R7bcad2b7b9ef4f70"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R7bcad2b7b9ef4f70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Raa0fc18a1b0541b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Raa0fc18a1b0541b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfe780b521cf7497e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/110_SimpleCalibrationWorkbook_0.9.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfe780b521cf7497e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R2b7f0bee67774ab0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
